--- a/register.xlsx
+++ b/register.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,24 +30,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,31 +49,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -172,44 +157,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -236,15 +221,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -271,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -283,142 +266,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -428,217 +435,292 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15" customWidth="1" style="2" min="2" max="2"/>
-    <col width="19.28515625" customWidth="1" style="2" min="3" max="3"/>
-    <col width="17.7109375" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>check-in</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>check-out</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>work_hours</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>0.6361111111111111</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.7263888888888889</v>
-      </c>
-      <c r="D2" s="3" t="n"/>
+      <c r="A2" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15:16:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17:26:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>02:10:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="A3" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>19:41:11</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8305555555555556</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:56:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:14:49</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>19:42:06</t>
         </is>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>0.9655671296296297</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23:10:25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>03:28:19</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="A5" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>23:18:42</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>23:18:42</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="A6" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>23:21:58</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>23:18:43</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +23:56:</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>23:49:39</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>23:18:44</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +23:29:</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="A8" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>23:49:40</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>23:49:53</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00:00:13</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>23:50:16</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>23:49:53</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +23:59:</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>23:50:16</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>23:50:33</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>00:00:17</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="A11" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>23:51:23</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>23:52:00</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>00:00:37</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="A12" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>23:54:41</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>23:54:54</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00:00:13</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="A13" s="3" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>23:55:40</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>23:56:37</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00:00:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>07:10:07</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>07:44:21</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/register.xlsx
+++ b/register.xlsx
@@ -2,24 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -30,7 +29,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,10 +51,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,14 +75,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,13 +445,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.85546875" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -466,7 +479,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +499,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,7 +519,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -526,7 +539,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,7 +559,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -566,7 +579,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -586,7 +599,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,7 +619,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -626,7 +639,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -646,7 +659,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +679,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,7 +699,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -706,21 +719,196 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>07:10:07</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>07:44:21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>00:34:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>09:15:41</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09:16:01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>09:16:08</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:16:49</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>00:00:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>09:16:55</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>09:17:04</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09:49:07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:49:15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>00:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>09:50:02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>09:50:09</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>00:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>10:46:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>11:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>11:05:54</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>11:06:07</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>